--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EBEF1F-1C04-4317-8CD8-9BEB39CA4395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1EB45C-FBDD-4F13-A9CE-E3041E8258B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Район 1</t>
   </si>
@@ -61,32 +61,71 @@
     <t>Цель</t>
   </si>
   <si>
-    <t>10 удобрение</t>
-  </si>
-  <si>
-    <t>11 удобрение</t>
-  </si>
-  <si>
-    <t>12 удобрение</t>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Норма азота</t>
+  </si>
+  <si>
+    <t>Норма фосфора</t>
+  </si>
+  <si>
+    <t>Норма калия</t>
+  </si>
+  <si>
+    <t>Культура</t>
+  </si>
+  <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>16 удобрение</t>
+  </si>
+  <si>
+    <t>17 удобрение</t>
+  </si>
+  <si>
+    <t>18 удобрение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor rgb="FFEAEAEA"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,11 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,97 +464,121 @@
     <col min="8" max="9" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>540</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -605,6 +669,11 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F73910-43D4-484D-BDC6-4F8DC68B776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F7CA8-BB11-42E4-8D5C-3DB78F4B9580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,13 +88,13 @@
     <t>Назначение</t>
   </si>
   <si>
-    <t>new13</t>
-  </si>
-  <si>
-    <t>new14</t>
-  </si>
-  <si>
-    <t>new15</t>
+    <t>new16</t>
+  </si>
+  <si>
+    <t>new17</t>
+  </si>
+  <si>
+    <t>new18</t>
   </si>
 </sst>
 </file>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F7CA8-BB11-42E4-8D5C-3DB78F4B9580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED637690-D9AB-4FFD-A2DA-5B8DB9D0840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="18">
   <si>
     <t>Район 1</t>
   </si>
@@ -86,15 +86,6 @@
   </si>
   <si>
     <t>Назначение</t>
-  </si>
-  <si>
-    <t>new16</t>
-  </si>
-  <si>
-    <t>new17</t>
-  </si>
-  <si>
-    <t>new18</t>
   </si>
 </sst>
 </file>
@@ -450,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,186 +485,4615 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1">
+        <v>222</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>540</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1">
+        <v>222</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>540</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1">
+        <v>222</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>540</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1">
+        <v>222</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>540</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1">
+        <v>222</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>540</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1">
+        <v>222</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>123</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>540</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1">
-        <v>222</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B20" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>540</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>222</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>540</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>99</v>
+      </c>
+      <c r="D24" s="1">
+        <v>222</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>540</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1">
+        <v>222</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>540</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1">
+        <v>222</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>540</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1">
+        <v>222</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>200</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>540</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1">
+        <v>222</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>200</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>123</v>
+      </c>
+      <c r="D37" s="1">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>540</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>99</v>
+      </c>
+      <c r="D39" s="1">
+        <v>222</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>200</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>123</v>
+      </c>
+      <c r="D40" s="1">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>540</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1">
+        <v>222</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>123</v>
+      </c>
+      <c r="D43" s="1">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>540</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>99</v>
+      </c>
+      <c r="D45" s="1">
+        <v>222</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>123</v>
+      </c>
+      <c r="D46" s="1">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>540</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>99</v>
+      </c>
+      <c r="D48" s="1">
+        <v>222</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>123</v>
+      </c>
+      <c r="D49" s="1">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>540</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>99</v>
+      </c>
+      <c r="D51" s="1">
+        <v>222</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>200</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>123</v>
+      </c>
+      <c r="D52" s="1">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>540</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>99</v>
+      </c>
+      <c r="D54" s="1">
+        <v>222</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>200</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>123</v>
+      </c>
+      <c r="D55" s="1">
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>540</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>99</v>
+      </c>
+      <c r="D57" s="1">
+        <v>222</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>200</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>123</v>
+      </c>
+      <c r="D58" s="1">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>540</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>99</v>
+      </c>
+      <c r="D60" s="1">
+        <v>222</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>200</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>123</v>
+      </c>
+      <c r="D61" s="1">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>540</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>99</v>
+      </c>
+      <c r="D63" s="1">
+        <v>222</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>200</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>123</v>
+      </c>
+      <c r="D64" s="1">
+        <v>23</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>540</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>99</v>
+      </c>
+      <c r="D66" s="1">
+        <v>222</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>200</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>123</v>
+      </c>
+      <c r="D67" s="1">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>540</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>99</v>
+      </c>
+      <c r="D69" s="1">
+        <v>222</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>200</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>123</v>
+      </c>
+      <c r="D70" s="1">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>540</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1">
+        <v>99</v>
+      </c>
+      <c r="D72" s="1">
+        <v>222</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>200</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>123</v>
+      </c>
+      <c r="D73" s="1">
+        <v>23</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>540</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>99</v>
+      </c>
+      <c r="D75" s="1">
+        <v>222</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>200</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>123</v>
+      </c>
+      <c r="D76" s="1">
+        <v>23</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>540</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>99</v>
+      </c>
+      <c r="D78" s="1">
+        <v>222</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>200</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>123</v>
+      </c>
+      <c r="D79" s="1">
+        <v>23</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>540</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>99</v>
+      </c>
+      <c r="D81" s="1">
+        <v>222</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>200</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>123</v>
+      </c>
+      <c r="D82" s="1">
+        <v>23</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>540</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>99</v>
+      </c>
+      <c r="D84" s="1">
+        <v>222</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>200</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>123</v>
+      </c>
+      <c r="D85" s="1">
+        <v>23</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>540</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>99</v>
+      </c>
+      <c r="D87" s="1">
+        <v>222</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>200</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>123</v>
+      </c>
+      <c r="D88" s="1">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>540</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>99</v>
+      </c>
+      <c r="D90" s="1">
+        <v>222</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>200</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>123</v>
+      </c>
+      <c r="D91" s="1">
+        <v>23</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>540</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>99</v>
+      </c>
+      <c r="D93" s="1">
+        <v>222</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>200</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1">
+        <v>123</v>
+      </c>
+      <c r="D94" s="1">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94">
+        <v>540</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>99</v>
+      </c>
+      <c r="D96" s="1">
+        <v>222</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>200</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>123</v>
+      </c>
+      <c r="D97" s="1">
+        <v>23</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97">
+        <v>540</v>
+      </c>
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>99</v>
+      </c>
+      <c r="D99" s="1">
+        <v>222</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>200</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>123</v>
+      </c>
+      <c r="D100" s="1">
+        <v>23</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100">
+        <v>540</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>99</v>
+      </c>
+      <c r="D102" s="1">
+        <v>222</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>200</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1">
+        <v>123</v>
+      </c>
+      <c r="D103" s="1">
+        <v>23</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103">
+        <v>540</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>99</v>
+      </c>
+      <c r="D105" s="1">
+        <v>222</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>200</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1">
+        <v>123</v>
+      </c>
+      <c r="D106" s="1">
+        <v>23</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>540</v>
+      </c>
+      <c r="H106" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>99</v>
+      </c>
+      <c r="D108" s="1">
+        <v>222</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>200</v>
+      </c>
+      <c r="H108" t="s">
+        <v>4</v>
+      </c>
+      <c r="I108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>123</v>
+      </c>
+      <c r="D109" s="1">
+        <v>23</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109">
+        <v>540</v>
+      </c>
+      <c r="H109" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1">
+        <v>99</v>
+      </c>
+      <c r="D111" s="1">
+        <v>222</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>200</v>
+      </c>
+      <c r="H111" t="s">
+        <v>4</v>
+      </c>
+      <c r="I111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>123</v>
+      </c>
+      <c r="D112" s="1">
+        <v>23</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112">
+        <v>540</v>
+      </c>
+      <c r="H112" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1">
+        <v>99</v>
+      </c>
+      <c r="D114" s="1">
+        <v>222</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>200</v>
+      </c>
+      <c r="H114" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>123</v>
+      </c>
+      <c r="D115" s="1">
+        <v>23</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115">
+        <v>540</v>
+      </c>
+      <c r="H115" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>99</v>
+      </c>
+      <c r="D117" s="1">
+        <v>222</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>200</v>
+      </c>
+      <c r="H117" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>123</v>
+      </c>
+      <c r="D118" s="1">
+        <v>23</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <v>540</v>
+      </c>
+      <c r="H118" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C119" s="1">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5</v>
+      </c>
+      <c r="C120" s="1">
+        <v>99</v>
+      </c>
+      <c r="D120" s="1">
+        <v>222</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>200</v>
+      </c>
+      <c r="H120" t="s">
+        <v>4</v>
+      </c>
+      <c r="I120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1">
+        <v>123</v>
+      </c>
+      <c r="D121" s="1">
+        <v>23</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121">
+        <v>540</v>
+      </c>
+      <c r="H121" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5</v>
+      </c>
+      <c r="C123" s="1">
+        <v>99</v>
+      </c>
+      <c r="D123" s="1">
+        <v>222</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>200</v>
+      </c>
+      <c r="H123" t="s">
+        <v>4</v>
+      </c>
+      <c r="I123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1">
+        <v>123</v>
+      </c>
+      <c r="D124" s="1">
+        <v>23</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <v>540</v>
+      </c>
+      <c r="H124" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5</v>
+      </c>
+      <c r="C126" s="1">
+        <v>99</v>
+      </c>
+      <c r="D126" s="1">
+        <v>222</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>200</v>
+      </c>
+      <c r="H126" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>123</v>
+      </c>
+      <c r="D127" s="1">
+        <v>23</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127">
+        <v>540</v>
+      </c>
+      <c r="H127" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>5</v>
+      </c>
+      <c r="C129" s="1">
+        <v>99</v>
+      </c>
+      <c r="D129" s="1">
+        <v>222</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>200</v>
+      </c>
+      <c r="H129" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1">
+        <v>123</v>
+      </c>
+      <c r="D130" s="1">
+        <v>23</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130">
+        <v>540</v>
+      </c>
+      <c r="H130" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>5</v>
+      </c>
+      <c r="C132" s="1">
+        <v>99</v>
+      </c>
+      <c r="D132" s="1">
+        <v>222</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>200</v>
+      </c>
+      <c r="H132" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1">
+        <v>123</v>
+      </c>
+      <c r="D133" s="1">
+        <v>23</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133">
+        <v>540</v>
+      </c>
+      <c r="H133" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5</v>
+      </c>
+      <c r="C135" s="1">
+        <v>99</v>
+      </c>
+      <c r="D135" s="1">
+        <v>222</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>200</v>
+      </c>
+      <c r="H135" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1">
+        <v>123</v>
+      </c>
+      <c r="D136" s="1">
+        <v>23</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136">
+        <v>540</v>
+      </c>
+      <c r="H136" t="s">
+        <v>7</v>
+      </c>
+      <c r="I136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C137" s="1">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>5</v>
+      </c>
+      <c r="C138" s="1">
+        <v>99</v>
+      </c>
+      <c r="D138" s="1">
+        <v>222</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>200</v>
+      </c>
+      <c r="H138" t="s">
+        <v>4</v>
+      </c>
+      <c r="I138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1">
+        <v>123</v>
+      </c>
+      <c r="D139" s="1">
+        <v>23</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139">
+        <v>540</v>
+      </c>
+      <c r="H139" t="s">
+        <v>7</v>
+      </c>
+      <c r="I139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>99</v>
+      </c>
+      <c r="D141" s="1">
+        <v>222</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>200</v>
+      </c>
+      <c r="H141" t="s">
+        <v>4</v>
+      </c>
+      <c r="I141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1">
+        <v>123</v>
+      </c>
+      <c r="D142" s="1">
+        <v>23</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142">
+        <v>540</v>
+      </c>
+      <c r="H142" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>5</v>
+      </c>
+      <c r="C144" s="1">
+        <v>99</v>
+      </c>
+      <c r="D144" s="1">
+        <v>222</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>200</v>
+      </c>
+      <c r="H144" t="s">
+        <v>4</v>
+      </c>
+      <c r="I144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1">
+        <v>123</v>
+      </c>
+      <c r="D145" s="1">
+        <v>23</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145">
+        <v>540</v>
+      </c>
+      <c r="H145" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>100</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>5</v>
+      </c>
+      <c r="C147" s="1">
+        <v>99</v>
+      </c>
+      <c r="D147" s="1">
+        <v>222</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>200</v>
+      </c>
+      <c r="H147" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1">
+        <v>123</v>
+      </c>
+      <c r="D148" s="1">
+        <v>23</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148">
+        <v>540</v>
+      </c>
+      <c r="H148" t="s">
+        <v>7</v>
+      </c>
+      <c r="I148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1">
+        <v>99</v>
+      </c>
+      <c r="D150" s="1">
+        <v>222</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>3</v>
+      </c>
+      <c r="G150">
+        <v>200</v>
+      </c>
+      <c r="H150" t="s">
+        <v>4</v>
+      </c>
+      <c r="I150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1">
+        <v>123</v>
+      </c>
+      <c r="D151" s="1">
+        <v>23</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151">
+        <v>540</v>
+      </c>
+      <c r="H151" t="s">
+        <v>7</v>
+      </c>
+      <c r="I151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <v>99</v>
+      </c>
+      <c r="D153" s="1">
+        <v>222</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>200</v>
+      </c>
+      <c r="H153" t="s">
+        <v>4</v>
+      </c>
+      <c r="I153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1">
+        <v>123</v>
+      </c>
+      <c r="D154" s="1">
+        <v>23</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154">
+        <v>540</v>
+      </c>
+      <c r="H154" t="s">
+        <v>7</v>
+      </c>
+      <c r="I154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>5</v>
+      </c>
+      <c r="C156" s="1">
+        <v>99</v>
+      </c>
+      <c r="D156" s="1">
+        <v>222</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>200</v>
+      </c>
+      <c r="H156" t="s">
+        <v>4</v>
+      </c>
+      <c r="I156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1">
+        <v>123</v>
+      </c>
+      <c r="D157" s="1">
+        <v>23</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157">
+        <v>540</v>
+      </c>
+      <c r="H157" t="s">
+        <v>7</v>
+      </c>
+      <c r="I157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C158" s="1">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>100</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>5</v>
+      </c>
+      <c r="C159" s="1">
+        <v>99</v>
+      </c>
+      <c r="D159" s="1">
+        <v>222</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>200</v>
+      </c>
+      <c r="H159" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1">
+        <v>123</v>
+      </c>
+      <c r="D160" s="1">
+        <v>23</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160">
+        <v>540</v>
+      </c>
+      <c r="H160" t="s">
+        <v>7</v>
+      </c>
+      <c r="I160" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499FD013-0167-4666-B9EE-8A4B9414FED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA24616-7E40-42F9-87CF-3C52E7FAFF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>имя2</t>
+  </si>
+  <si>
+    <t>вы</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,8 +477,8 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>99</v>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA24616-7E40-42F9-87CF-3C52E7FAFF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66537768-C3E8-4FBA-85F0-047D7415AB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,34 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>norm_nitrogen</t>
-  </si>
-  <si>
-    <t>norm_phosphorus</t>
-  </si>
-  <si>
-    <t>norm_potassium</t>
-  </si>
-  <si>
-    <t>culture_id</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Район 1</t>
   </si>
@@ -88,7 +61,31 @@
     <t>имя2</t>
   </si>
   <si>
-    <t>вы</t>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Норма азота</t>
+  </si>
+  <si>
+    <t>Норма фосфора</t>
+  </si>
+  <si>
+    <t>Норма калия</t>
+  </si>
+  <si>
+    <t>Id культуры</t>
+  </si>
+  <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание </t>
+  </si>
+  <si>
+    <t>Назначение</t>
   </si>
 </sst>
 </file>
@@ -412,45 +409,56 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
@@ -461,27 +469,27 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123</v>
       </c>
       <c r="C3" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>222</v>
@@ -490,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66537768-C3E8-4FBA-85F0-047D7415AB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA4B35-0D85-4C61-A731-A2E281BB90A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Район 1</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Цель 2</t>
   </si>
   <si>
-    <t>имя1</t>
-  </si>
-  <si>
     <t>имя2</t>
   </si>
   <si>
@@ -73,26 +70,26 @@
     <t>Норма калия</t>
   </si>
   <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
     <t>Id культуры</t>
-  </si>
-  <si>
-    <t>Район</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание </t>
-  </si>
-  <si>
-    <t>Назначение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +97,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor rgb="FFEAEAEA"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,7 +419,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,42 +433,37 @@
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>3</v>
       </c>
@@ -483,7 +488,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>123</v>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA4B35-0D85-4C61-A731-A2E281BB90A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF6D4A6-AB02-4868-BD3A-840C744552B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Район 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Описание 1</t>
   </si>
@@ -83,6 +80,15 @@
   </si>
   <si>
     <t>Id культуры</t>
+  </si>
+  <si>
+    <t>имя1</t>
+  </si>
+  <si>
+    <t>РР</t>
+  </si>
+  <si>
+    <t>ыфав</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,35 +441,40 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
@@ -474,21 +485,21 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>123</v>
@@ -503,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>200</v>
       </c>
       <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF6D4A6-AB02-4868-BD3A-840C744552B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2E229-FB94-41D6-92E9-1944A989357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Описание 1</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>РР</t>
-  </si>
-  <si>
-    <t>ыфав</t>
   </si>
 </sst>
 </file>
@@ -472,9 +469,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>3</v>
       </c>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2E229-FB94-41D6-92E9-1944A989357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A77F9-5D98-47F5-BE9C-146F821209FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,9 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>123</v>
+      </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>

--- a/public/imports/manures.xlsx
+++ b/public/imports/manures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_my_projects\manure\_mat_tz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A77F9-5D98-47F5-BE9C-146F821209FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E379B-5A23-4D24-AB06-972C4F61423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Описание 1</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>РР</t>
+  </si>
+  <si>
+    <t>имя3</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +473,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>123</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -520,6 +523,33 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11111</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>4</v>
       </c>
     </row>
